--- a/Rain Gauge/Tagoloan/Rain Gauge 1/Processed_TAG Rain Gauge 211001 to 211031.xlsx
+++ b/Rain Gauge/Tagoloan/Rain Gauge 1/Processed_TAG Rain Gauge 211001 to 211031.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="754">
   <si>
     <t>Station Name</t>
   </si>
@@ -2273,33 +2273,6 @@
   </si>
   <si>
     <t>10/31/2021 11:47:00 PM</t>
-  </si>
-  <si>
-    <t>11/1/2021 12:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 1:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 2:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 3:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 4:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 5:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 6:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 7:47:00 AM</t>
-  </si>
-  <si>
-    <t>11/1/2021 8:47:00 AM</t>
   </si>
   <si>
     <t>Rain Gauge</t>
@@ -2660,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H753"/>
+  <dimension ref="A1:H744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2712,7 +2685,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2738,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2764,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2790,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2816,7 +2789,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2842,7 +2815,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2868,7 +2841,7 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2894,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2920,7 +2893,7 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2946,7 +2919,7 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2972,7 +2945,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2998,7 +2971,7 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3024,7 +2997,7 @@
         <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3050,7 +3023,7 @@
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3076,7 +3049,7 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3102,7 +3075,7 @@
         <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3128,7 +3101,7 @@
         <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3154,7 +3127,7 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3180,7 +3153,7 @@
         <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3206,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3232,7 +3205,7 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3258,7 +3231,7 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3284,7 +3257,7 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3310,7 +3283,7 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3336,7 +3309,7 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3362,7 +3335,7 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3388,7 +3361,7 @@
         <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3414,7 +3387,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3440,7 +3413,7 @@
         <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3466,7 +3439,7 @@
         <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3492,7 +3465,7 @@
         <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3518,7 +3491,7 @@
         <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3544,7 +3517,7 @@
         <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3570,7 +3543,7 @@
         <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3596,7 +3569,7 @@
         <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3622,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3648,7 +3621,7 @@
         <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3674,7 +3647,7 @@
         <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3700,7 +3673,7 @@
         <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3726,7 +3699,7 @@
         <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3752,7 +3725,7 @@
         <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3778,7 +3751,7 @@
         <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3804,7 +3777,7 @@
         <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3830,7 +3803,7 @@
         <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3856,7 +3829,7 @@
         <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3882,7 +3855,7 @@
         <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3908,7 +3881,7 @@
         <v>56</v>
       </c>
       <c r="H48" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3934,7 +3907,7 @@
         <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3960,7 +3933,7 @@
         <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3986,7 +3959,7 @@
         <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4012,7 +3985,7 @@
         <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4038,7 +4011,7 @@
         <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4064,7 +4037,7 @@
         <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4090,7 +4063,7 @@
         <v>63</v>
       </c>
       <c r="H55" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4116,7 +4089,7 @@
         <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4142,7 +4115,7 @@
         <v>65</v>
       </c>
       <c r="H57" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4168,7 +4141,7 @@
         <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4194,7 +4167,7 @@
         <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4220,7 +4193,7 @@
         <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4246,7 +4219,7 @@
         <v>69</v>
       </c>
       <c r="H61" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4272,7 +4245,7 @@
         <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4298,7 +4271,7 @@
         <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4324,7 +4297,7 @@
         <v>72</v>
       </c>
       <c r="H64" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4350,7 +4323,7 @@
         <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4376,7 +4349,7 @@
         <v>74</v>
       </c>
       <c r="H66" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4402,7 +4375,7 @@
         <v>75</v>
       </c>
       <c r="H67" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4428,7 +4401,7 @@
         <v>76</v>
       </c>
       <c r="H68" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4454,7 +4427,7 @@
         <v>77</v>
       </c>
       <c r="H69" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4480,7 +4453,7 @@
         <v>78</v>
       </c>
       <c r="H70" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4506,7 +4479,7 @@
         <v>79</v>
       </c>
       <c r="H71" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4532,7 +4505,7 @@
         <v>80</v>
       </c>
       <c r="H72" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4558,7 +4531,7 @@
         <v>81</v>
       </c>
       <c r="H73" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4584,7 +4557,7 @@
         <v>82</v>
       </c>
       <c r="H74" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4610,7 +4583,7 @@
         <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4636,7 +4609,7 @@
         <v>84</v>
       </c>
       <c r="H76" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4662,7 +4635,7 @@
         <v>85</v>
       </c>
       <c r="H77" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4688,7 +4661,7 @@
         <v>86</v>
       </c>
       <c r="H78" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4714,7 +4687,7 @@
         <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4740,7 +4713,7 @@
         <v>88</v>
       </c>
       <c r="H80" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4766,7 +4739,7 @@
         <v>89</v>
       </c>
       <c r="H81" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4792,7 +4765,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4818,7 +4791,7 @@
         <v>91</v>
       </c>
       <c r="H83" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4844,7 +4817,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4870,7 +4843,7 @@
         <v>93</v>
       </c>
       <c r="H85" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4896,7 +4869,7 @@
         <v>94</v>
       </c>
       <c r="H86" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4922,7 +4895,7 @@
         <v>95</v>
       </c>
       <c r="H87" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4948,7 +4921,7 @@
         <v>96</v>
       </c>
       <c r="H88" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4974,7 +4947,7 @@
         <v>97</v>
       </c>
       <c r="H89" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5000,7 +4973,7 @@
         <v>98</v>
       </c>
       <c r="H90" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5026,7 +4999,7 @@
         <v>99</v>
       </c>
       <c r="H91" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5052,7 +5025,7 @@
         <v>100</v>
       </c>
       <c r="H92" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5078,7 +5051,7 @@
         <v>101</v>
       </c>
       <c r="H93" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5104,7 +5077,7 @@
         <v>102</v>
       </c>
       <c r="H94" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5130,7 +5103,7 @@
         <v>103</v>
       </c>
       <c r="H95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5156,7 +5129,7 @@
         <v>104</v>
       </c>
       <c r="H96" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5182,7 +5155,7 @@
         <v>105</v>
       </c>
       <c r="H97" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5208,7 +5181,7 @@
         <v>106</v>
       </c>
       <c r="H98" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5234,7 +5207,7 @@
         <v>107</v>
       </c>
       <c r="H99" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5260,7 +5233,7 @@
         <v>108</v>
       </c>
       <c r="H100" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5286,7 +5259,7 @@
         <v>109</v>
       </c>
       <c r="H101" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5312,7 +5285,7 @@
         <v>110</v>
       </c>
       <c r="H102" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5338,7 +5311,7 @@
         <v>111</v>
       </c>
       <c r="H103" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5364,7 +5337,7 @@
         <v>112</v>
       </c>
       <c r="H104" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5390,7 +5363,7 @@
         <v>113</v>
       </c>
       <c r="H105" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5416,7 +5389,7 @@
         <v>114</v>
       </c>
       <c r="H106" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5442,7 +5415,7 @@
         <v>115</v>
       </c>
       <c r="H107" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5468,7 +5441,7 @@
         <v>116</v>
       </c>
       <c r="H108" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5494,7 +5467,7 @@
         <v>117</v>
       </c>
       <c r="H109" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5520,7 +5493,7 @@
         <v>118</v>
       </c>
       <c r="H110" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5546,7 +5519,7 @@
         <v>119</v>
       </c>
       <c r="H111" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5572,7 +5545,7 @@
         <v>120</v>
       </c>
       <c r="H112" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5598,7 +5571,7 @@
         <v>121</v>
       </c>
       <c r="H113" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5624,7 +5597,7 @@
         <v>122</v>
       </c>
       <c r="H114" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5650,7 +5623,7 @@
         <v>123</v>
       </c>
       <c r="H115" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5676,7 +5649,7 @@
         <v>124</v>
       </c>
       <c r="H116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5702,7 +5675,7 @@
         <v>125</v>
       </c>
       <c r="H117" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5728,7 +5701,7 @@
         <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5754,7 +5727,7 @@
         <v>127</v>
       </c>
       <c r="H119" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5780,7 +5753,7 @@
         <v>128</v>
       </c>
       <c r="H120" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5806,7 +5779,7 @@
         <v>129</v>
       </c>
       <c r="H121" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5832,7 +5805,7 @@
         <v>130</v>
       </c>
       <c r="H122" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5858,7 +5831,7 @@
         <v>131</v>
       </c>
       <c r="H123" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5884,7 +5857,7 @@
         <v>132</v>
       </c>
       <c r="H124" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5910,7 +5883,7 @@
         <v>133</v>
       </c>
       <c r="H125" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5936,7 +5909,7 @@
         <v>134</v>
       </c>
       <c r="H126" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5962,7 +5935,7 @@
         <v>135</v>
       </c>
       <c r="H127" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5988,7 +5961,7 @@
         <v>136</v>
       </c>
       <c r="H128" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6014,7 +5987,7 @@
         <v>137</v>
       </c>
       <c r="H129" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6040,7 +6013,7 @@
         <v>138</v>
       </c>
       <c r="H130" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6066,7 +6039,7 @@
         <v>139</v>
       </c>
       <c r="H131" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6092,7 +6065,7 @@
         <v>140</v>
       </c>
       <c r="H132" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6118,7 +6091,7 @@
         <v>141</v>
       </c>
       <c r="H133" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6144,7 +6117,7 @@
         <v>142</v>
       </c>
       <c r="H134" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6170,7 +6143,7 @@
         <v>143</v>
       </c>
       <c r="H135" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6196,7 +6169,7 @@
         <v>144</v>
       </c>
       <c r="H136" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6222,7 +6195,7 @@
         <v>145</v>
       </c>
       <c r="H137" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6248,7 +6221,7 @@
         <v>146</v>
       </c>
       <c r="H138" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6274,7 +6247,7 @@
         <v>147</v>
       </c>
       <c r="H139" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6300,7 +6273,7 @@
         <v>148</v>
       </c>
       <c r="H140" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6326,7 +6299,7 @@
         <v>149</v>
       </c>
       <c r="H141" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6352,7 +6325,7 @@
         <v>150</v>
       </c>
       <c r="H142" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6378,7 +6351,7 @@
         <v>151</v>
       </c>
       <c r="H143" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6404,7 +6377,7 @@
         <v>152</v>
       </c>
       <c r="H144" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6430,7 +6403,7 @@
         <v>153</v>
       </c>
       <c r="H145" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6456,7 +6429,7 @@
         <v>154</v>
       </c>
       <c r="H146" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6482,7 +6455,7 @@
         <v>155</v>
       </c>
       <c r="H147" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6508,7 +6481,7 @@
         <v>156</v>
       </c>
       <c r="H148" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6534,7 +6507,7 @@
         <v>157</v>
       </c>
       <c r="H149" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6560,7 +6533,7 @@
         <v>158</v>
       </c>
       <c r="H150" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6586,7 +6559,7 @@
         <v>159</v>
       </c>
       <c r="H151" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6612,7 +6585,7 @@
         <v>160</v>
       </c>
       <c r="H152" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6638,7 +6611,7 @@
         <v>161</v>
       </c>
       <c r="H153" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6664,7 +6637,7 @@
         <v>162</v>
       </c>
       <c r="H154" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6690,7 +6663,7 @@
         <v>163</v>
       </c>
       <c r="H155" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6716,7 +6689,7 @@
         <v>164</v>
       </c>
       <c r="H156" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6742,7 +6715,7 @@
         <v>165</v>
       </c>
       <c r="H157" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6768,7 +6741,7 @@
         <v>166</v>
       </c>
       <c r="H158" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6794,7 +6767,7 @@
         <v>167</v>
       </c>
       <c r="H159" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6820,7 +6793,7 @@
         <v>168</v>
       </c>
       <c r="H160" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6846,7 +6819,7 @@
         <v>169</v>
       </c>
       <c r="H161" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6872,7 +6845,7 @@
         <v>170</v>
       </c>
       <c r="H162" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6898,7 +6871,7 @@
         <v>171</v>
       </c>
       <c r="H163" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6924,7 +6897,7 @@
         <v>172</v>
       </c>
       <c r="H164" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6950,7 +6923,7 @@
         <v>173</v>
       </c>
       <c r="H165" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6976,7 +6949,7 @@
         <v>174</v>
       </c>
       <c r="H166" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7002,7 +6975,7 @@
         <v>175</v>
       </c>
       <c r="H167" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7028,7 +7001,7 @@
         <v>176</v>
       </c>
       <c r="H168" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7054,7 +7027,7 @@
         <v>177</v>
       </c>
       <c r="H169" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7080,7 +7053,7 @@
         <v>178</v>
       </c>
       <c r="H170" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7106,7 +7079,7 @@
         <v>179</v>
       </c>
       <c r="H171" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7132,7 +7105,7 @@
         <v>180</v>
       </c>
       <c r="H172" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7158,7 +7131,7 @@
         <v>181</v>
       </c>
       <c r="H173" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7184,7 +7157,7 @@
         <v>182</v>
       </c>
       <c r="H174" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7210,7 +7183,7 @@
         <v>183</v>
       </c>
       <c r="H175" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7236,7 +7209,7 @@
         <v>184</v>
       </c>
       <c r="H176" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7262,7 +7235,7 @@
         <v>185</v>
       </c>
       <c r="H177" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7288,7 +7261,7 @@
         <v>186</v>
       </c>
       <c r="H178" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7314,7 +7287,7 @@
         <v>187</v>
       </c>
       <c r="H179" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7340,7 +7313,7 @@
         <v>188</v>
       </c>
       <c r="H180" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7366,7 +7339,7 @@
         <v>189</v>
       </c>
       <c r="H181" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7392,7 +7365,7 @@
         <v>190</v>
       </c>
       <c r="H182" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7418,7 +7391,7 @@
         <v>191</v>
       </c>
       <c r="H183" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7444,7 +7417,7 @@
         <v>192</v>
       </c>
       <c r="H184" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7470,7 +7443,7 @@
         <v>193</v>
       </c>
       <c r="H185" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7496,7 +7469,7 @@
         <v>194</v>
       </c>
       <c r="H186" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7522,7 +7495,7 @@
         <v>195</v>
       </c>
       <c r="H187" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7548,7 +7521,7 @@
         <v>196</v>
       </c>
       <c r="H188" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7574,7 +7547,7 @@
         <v>197</v>
       </c>
       <c r="H189" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7600,7 +7573,7 @@
         <v>198</v>
       </c>
       <c r="H190" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7626,7 +7599,7 @@
         <v>199</v>
       </c>
       <c r="H191" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7652,7 +7625,7 @@
         <v>200</v>
       </c>
       <c r="H192" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7678,7 +7651,7 @@
         <v>201</v>
       </c>
       <c r="H193" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7704,7 +7677,7 @@
         <v>202</v>
       </c>
       <c r="H194" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7730,7 +7703,7 @@
         <v>203</v>
       </c>
       <c r="H195" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7756,7 +7729,7 @@
         <v>204</v>
       </c>
       <c r="H196" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7782,7 +7755,7 @@
         <v>205</v>
       </c>
       <c r="H197" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7808,7 +7781,7 @@
         <v>206</v>
       </c>
       <c r="H198" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7834,7 +7807,7 @@
         <v>207</v>
       </c>
       <c r="H199" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7860,7 +7833,7 @@
         <v>208</v>
       </c>
       <c r="H200" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7886,7 +7859,7 @@
         <v>209</v>
       </c>
       <c r="H201" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7912,7 +7885,7 @@
         <v>210</v>
       </c>
       <c r="H202" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7938,7 +7911,7 @@
         <v>211</v>
       </c>
       <c r="H203" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7964,7 +7937,7 @@
         <v>212</v>
       </c>
       <c r="H204" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7990,7 +7963,7 @@
         <v>213</v>
       </c>
       <c r="H205" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8016,7 +7989,7 @@
         <v>214</v>
       </c>
       <c r="H206" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8042,7 +8015,7 @@
         <v>215</v>
       </c>
       <c r="H207" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8068,7 +8041,7 @@
         <v>216</v>
       </c>
       <c r="H208" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8094,7 +8067,7 @@
         <v>217</v>
       </c>
       <c r="H209" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8120,7 +8093,7 @@
         <v>218</v>
       </c>
       <c r="H210" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8146,7 +8119,7 @@
         <v>219</v>
       </c>
       <c r="H211" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8172,7 +8145,7 @@
         <v>220</v>
       </c>
       <c r="H212" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8198,7 +8171,7 @@
         <v>221</v>
       </c>
       <c r="H213" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8224,7 +8197,7 @@
         <v>222</v>
       </c>
       <c r="H214" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8250,7 +8223,7 @@
         <v>223</v>
       </c>
       <c r="H215" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8276,7 +8249,7 @@
         <v>224</v>
       </c>
       <c r="H216" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8302,7 +8275,7 @@
         <v>225</v>
       </c>
       <c r="H217" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8328,7 +8301,7 @@
         <v>226</v>
       </c>
       <c r="H218" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8354,7 +8327,7 @@
         <v>227</v>
       </c>
       <c r="H219" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8380,7 +8353,7 @@
         <v>228</v>
       </c>
       <c r="H220" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8406,7 +8379,7 @@
         <v>229</v>
       </c>
       <c r="H221" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8432,7 +8405,7 @@
         <v>230</v>
       </c>
       <c r="H222" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8458,7 +8431,7 @@
         <v>231</v>
       </c>
       <c r="H223" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8484,7 +8457,7 @@
         <v>232</v>
       </c>
       <c r="H224" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8510,7 +8483,7 @@
         <v>233</v>
       </c>
       <c r="H225" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8536,7 +8509,7 @@
         <v>234</v>
       </c>
       <c r="H226" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8562,7 +8535,7 @@
         <v>235</v>
       </c>
       <c r="H227" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8588,7 +8561,7 @@
         <v>236</v>
       </c>
       <c r="H228" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8614,7 +8587,7 @@
         <v>237</v>
       </c>
       <c r="H229" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8640,7 +8613,7 @@
         <v>238</v>
       </c>
       <c r="H230" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8666,7 +8639,7 @@
         <v>239</v>
       </c>
       <c r="H231" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8692,7 +8665,7 @@
         <v>240</v>
       </c>
       <c r="H232" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8718,7 +8691,7 @@
         <v>241</v>
       </c>
       <c r="H233" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8744,7 +8717,7 @@
         <v>242</v>
       </c>
       <c r="H234" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8770,7 +8743,7 @@
         <v>243</v>
       </c>
       <c r="H235" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8796,7 +8769,7 @@
         <v>244</v>
       </c>
       <c r="H236" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8822,7 +8795,7 @@
         <v>245</v>
       </c>
       <c r="H237" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8848,7 +8821,7 @@
         <v>246</v>
       </c>
       <c r="H238" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8874,7 +8847,7 @@
         <v>247</v>
       </c>
       <c r="H239" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8900,7 +8873,7 @@
         <v>248</v>
       </c>
       <c r="H240" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8926,7 +8899,7 @@
         <v>249</v>
       </c>
       <c r="H241" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8952,7 +8925,7 @@
         <v>250</v>
       </c>
       <c r="H242" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8978,7 +8951,7 @@
         <v>251</v>
       </c>
       <c r="H243" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9004,7 +8977,7 @@
         <v>252</v>
       </c>
       <c r="H244" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9030,7 +9003,7 @@
         <v>253</v>
       </c>
       <c r="H245" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9056,7 +9029,7 @@
         <v>254</v>
       </c>
       <c r="H246" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9082,7 +9055,7 @@
         <v>255</v>
       </c>
       <c r="H247" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9108,7 +9081,7 @@
         <v>256</v>
       </c>
       <c r="H248" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9134,7 +9107,7 @@
         <v>257</v>
       </c>
       <c r="H249" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9160,7 +9133,7 @@
         <v>258</v>
       </c>
       <c r="H250" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9186,7 +9159,7 @@
         <v>259</v>
       </c>
       <c r="H251" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9212,7 +9185,7 @@
         <v>260</v>
       </c>
       <c r="H252" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9238,7 +9211,7 @@
         <v>261</v>
       </c>
       <c r="H253" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9264,7 +9237,7 @@
         <v>262</v>
       </c>
       <c r="H254" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9290,7 +9263,7 @@
         <v>263</v>
       </c>
       <c r="H255" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9316,7 +9289,7 @@
         <v>264</v>
       </c>
       <c r="H256" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9342,7 +9315,7 @@
         <v>265</v>
       </c>
       <c r="H257" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9368,7 +9341,7 @@
         <v>266</v>
       </c>
       <c r="H258" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9394,7 +9367,7 @@
         <v>267</v>
       </c>
       <c r="H259" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9420,7 +9393,7 @@
         <v>268</v>
       </c>
       <c r="H260" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9446,7 +9419,7 @@
         <v>269</v>
       </c>
       <c r="H261" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9472,7 +9445,7 @@
         <v>270</v>
       </c>
       <c r="H262" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9498,7 +9471,7 @@
         <v>271</v>
       </c>
       <c r="H263" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9524,7 +9497,7 @@
         <v>272</v>
       </c>
       <c r="H264" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9550,7 +9523,7 @@
         <v>273</v>
       </c>
       <c r="H265" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9576,7 +9549,7 @@
         <v>274</v>
       </c>
       <c r="H266" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9602,7 +9575,7 @@
         <v>275</v>
       </c>
       <c r="H267" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9628,7 +9601,7 @@
         <v>276</v>
       </c>
       <c r="H268" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9654,7 +9627,7 @@
         <v>277</v>
       </c>
       <c r="H269" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9680,7 +9653,7 @@
         <v>278</v>
       </c>
       <c r="H270" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9706,7 +9679,7 @@
         <v>279</v>
       </c>
       <c r="H271" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9732,7 +9705,7 @@
         <v>280</v>
       </c>
       <c r="H272" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9758,7 +9731,7 @@
         <v>281</v>
       </c>
       <c r="H273" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9784,7 +9757,7 @@
         <v>282</v>
       </c>
       <c r="H274" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9810,7 +9783,7 @@
         <v>283</v>
       </c>
       <c r="H275" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9836,7 +9809,7 @@
         <v>284</v>
       </c>
       <c r="H276" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9862,7 +9835,7 @@
         <v>285</v>
       </c>
       <c r="H277" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9888,7 +9861,7 @@
         <v>286</v>
       </c>
       <c r="H278" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9914,7 +9887,7 @@
         <v>287</v>
       </c>
       <c r="H279" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9940,7 +9913,7 @@
         <v>288</v>
       </c>
       <c r="H280" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9966,7 +9939,7 @@
         <v>289</v>
       </c>
       <c r="H281" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9992,7 +9965,7 @@
         <v>290</v>
       </c>
       <c r="H282" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10018,7 +9991,7 @@
         <v>291</v>
       </c>
       <c r="H283" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10044,7 +10017,7 @@
         <v>292</v>
       </c>
       <c r="H284" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10070,7 +10043,7 @@
         <v>293</v>
       </c>
       <c r="H285" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10096,7 +10069,7 @@
         <v>294</v>
       </c>
       <c r="H286" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10122,7 +10095,7 @@
         <v>295</v>
       </c>
       <c r="H287" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10148,7 +10121,7 @@
         <v>296</v>
       </c>
       <c r="H288" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10174,7 +10147,7 @@
         <v>297</v>
       </c>
       <c r="H289" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10200,7 +10173,7 @@
         <v>298</v>
       </c>
       <c r="H290" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10226,7 +10199,7 @@
         <v>299</v>
       </c>
       <c r="H291" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10252,7 +10225,7 @@
         <v>300</v>
       </c>
       <c r="H292" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10278,7 +10251,7 @@
         <v>301</v>
       </c>
       <c r="H293" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10304,7 +10277,7 @@
         <v>302</v>
       </c>
       <c r="H294" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10330,7 +10303,7 @@
         <v>303</v>
       </c>
       <c r="H295" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10356,7 +10329,7 @@
         <v>304</v>
       </c>
       <c r="H296" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10382,7 +10355,7 @@
         <v>305</v>
       </c>
       <c r="H297" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10408,7 +10381,7 @@
         <v>306</v>
       </c>
       <c r="H298" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10434,7 +10407,7 @@
         <v>307</v>
       </c>
       <c r="H299" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10460,7 +10433,7 @@
         <v>308</v>
       </c>
       <c r="H300" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10486,7 +10459,7 @@
         <v>309</v>
       </c>
       <c r="H301" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10512,7 +10485,7 @@
         <v>310</v>
       </c>
       <c r="H302" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10538,7 +10511,7 @@
         <v>311</v>
       </c>
       <c r="H303" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10564,7 +10537,7 @@
         <v>312</v>
       </c>
       <c r="H304" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10590,7 +10563,7 @@
         <v>313</v>
       </c>
       <c r="H305" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10616,7 +10589,7 @@
         <v>314</v>
       </c>
       <c r="H306" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10642,7 +10615,7 @@
         <v>315</v>
       </c>
       <c r="H307" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10668,7 +10641,7 @@
         <v>316</v>
       </c>
       <c r="H308" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10694,7 +10667,7 @@
         <v>317</v>
       </c>
       <c r="H309" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10720,7 +10693,7 @@
         <v>318</v>
       </c>
       <c r="H310" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10746,7 +10719,7 @@
         <v>319</v>
       </c>
       <c r="H311" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10772,7 +10745,7 @@
         <v>320</v>
       </c>
       <c r="H312" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10798,7 +10771,7 @@
         <v>321</v>
       </c>
       <c r="H313" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10824,7 +10797,7 @@
         <v>322</v>
       </c>
       <c r="H314" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10850,7 +10823,7 @@
         <v>323</v>
       </c>
       <c r="H315" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10876,7 +10849,7 @@
         <v>324</v>
       </c>
       <c r="H316" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10902,7 +10875,7 @@
         <v>325</v>
       </c>
       <c r="H317" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10928,7 +10901,7 @@
         <v>326</v>
       </c>
       <c r="H318" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10954,7 +10927,7 @@
         <v>327</v>
       </c>
       <c r="H319" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10980,7 +10953,7 @@
         <v>328</v>
       </c>
       <c r="H320" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11006,7 +10979,7 @@
         <v>329</v>
       </c>
       <c r="H321" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11032,7 +11005,7 @@
         <v>330</v>
       </c>
       <c r="H322" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11058,7 +11031,7 @@
         <v>331</v>
       </c>
       <c r="H323" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11084,7 +11057,7 @@
         <v>332</v>
       </c>
       <c r="H324" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11110,7 +11083,7 @@
         <v>333</v>
       </c>
       <c r="H325" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11136,7 +11109,7 @@
         <v>334</v>
       </c>
       <c r="H326" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11162,7 +11135,7 @@
         <v>335</v>
       </c>
       <c r="H327" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11188,7 +11161,7 @@
         <v>336</v>
       </c>
       <c r="H328" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11214,7 +11187,7 @@
         <v>337</v>
       </c>
       <c r="H329" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11240,7 +11213,7 @@
         <v>338</v>
       </c>
       <c r="H330" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11266,7 +11239,7 @@
         <v>339</v>
       </c>
       <c r="H331" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11292,7 +11265,7 @@
         <v>340</v>
       </c>
       <c r="H332" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11318,7 +11291,7 @@
         <v>341</v>
       </c>
       <c r="H333" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11344,7 +11317,7 @@
         <v>342</v>
       </c>
       <c r="H334" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11370,7 +11343,7 @@
         <v>343</v>
       </c>
       <c r="H335" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11396,7 +11369,7 @@
         <v>344</v>
       </c>
       <c r="H336" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11422,7 +11395,7 @@
         <v>345</v>
       </c>
       <c r="H337" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11448,7 +11421,7 @@
         <v>346</v>
       </c>
       <c r="H338" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11474,7 +11447,7 @@
         <v>347</v>
       </c>
       <c r="H339" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11500,7 +11473,7 @@
         <v>348</v>
       </c>
       <c r="H340" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11526,7 +11499,7 @@
         <v>349</v>
       </c>
       <c r="H341" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11552,7 +11525,7 @@
         <v>350</v>
       </c>
       <c r="H342" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11578,7 +11551,7 @@
         <v>351</v>
       </c>
       <c r="H343" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11604,7 +11577,7 @@
         <v>352</v>
       </c>
       <c r="H344" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11630,7 +11603,7 @@
         <v>353</v>
       </c>
       <c r="H345" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11656,7 +11629,7 @@
         <v>354</v>
       </c>
       <c r="H346" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11682,7 +11655,7 @@
         <v>355</v>
       </c>
       <c r="H347" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11708,7 +11681,7 @@
         <v>356</v>
       </c>
       <c r="H348" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11734,7 +11707,7 @@
         <v>357</v>
       </c>
       <c r="H349" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11760,7 +11733,7 @@
         <v>358</v>
       </c>
       <c r="H350" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11786,7 +11759,7 @@
         <v>359</v>
       </c>
       <c r="H351" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11812,7 +11785,7 @@
         <v>360</v>
       </c>
       <c r="H352" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11838,7 +11811,7 @@
         <v>361</v>
       </c>
       <c r="H353" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11864,7 +11837,7 @@
         <v>362</v>
       </c>
       <c r="H354" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11890,7 +11863,7 @@
         <v>363</v>
       </c>
       <c r="H355" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11916,7 +11889,7 @@
         <v>364</v>
       </c>
       <c r="H356" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11942,7 +11915,7 @@
         <v>365</v>
       </c>
       <c r="H357" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11968,7 +11941,7 @@
         <v>366</v>
       </c>
       <c r="H358" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11994,7 +11967,7 @@
         <v>367</v>
       </c>
       <c r="H359" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12020,7 +11993,7 @@
         <v>368</v>
       </c>
       <c r="H360" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12046,7 +12019,7 @@
         <v>369</v>
       </c>
       <c r="H361" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12072,7 +12045,7 @@
         <v>370</v>
       </c>
       <c r="H362" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12098,7 +12071,7 @@
         <v>371</v>
       </c>
       <c r="H363" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12124,7 +12097,7 @@
         <v>372</v>
       </c>
       <c r="H364" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12150,7 +12123,7 @@
         <v>373</v>
       </c>
       <c r="H365" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12176,7 +12149,7 @@
         <v>374</v>
       </c>
       <c r="H366" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12202,7 +12175,7 @@
         <v>375</v>
       </c>
       <c r="H367" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12228,7 +12201,7 @@
         <v>376</v>
       </c>
       <c r="H368" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12254,7 +12227,7 @@
         <v>377</v>
       </c>
       <c r="H369" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12280,7 +12253,7 @@
         <v>378</v>
       </c>
       <c r="H370" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12306,7 +12279,7 @@
         <v>379</v>
       </c>
       <c r="H371" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12332,7 +12305,7 @@
         <v>380</v>
       </c>
       <c r="H372" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12358,7 +12331,7 @@
         <v>381</v>
       </c>
       <c r="H373" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12384,7 +12357,7 @@
         <v>382</v>
       </c>
       <c r="H374" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12410,7 +12383,7 @@
         <v>383</v>
       </c>
       <c r="H375" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12436,7 +12409,7 @@
         <v>384</v>
       </c>
       <c r="H376" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12462,7 +12435,7 @@
         <v>385</v>
       </c>
       <c r="H377" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12488,7 +12461,7 @@
         <v>386</v>
       </c>
       <c r="H378" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12514,7 +12487,7 @@
         <v>387</v>
       </c>
       <c r="H379" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12540,7 +12513,7 @@
         <v>388</v>
       </c>
       <c r="H380" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12566,7 +12539,7 @@
         <v>389</v>
       </c>
       <c r="H381" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12592,7 +12565,7 @@
         <v>390</v>
       </c>
       <c r="H382" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12618,7 +12591,7 @@
         <v>391</v>
       </c>
       <c r="H383" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12644,7 +12617,7 @@
         <v>392</v>
       </c>
       <c r="H384" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12670,7 +12643,7 @@
         <v>393</v>
       </c>
       <c r="H385" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12696,7 +12669,7 @@
         <v>394</v>
       </c>
       <c r="H386" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12722,7 +12695,7 @@
         <v>395</v>
       </c>
       <c r="H387" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12748,7 +12721,7 @@
         <v>396</v>
       </c>
       <c r="H388" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12774,7 +12747,7 @@
         <v>397</v>
       </c>
       <c r="H389" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12800,7 +12773,7 @@
         <v>398</v>
       </c>
       <c r="H390" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12826,7 +12799,7 @@
         <v>399</v>
       </c>
       <c r="H391" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12852,7 +12825,7 @@
         <v>400</v>
       </c>
       <c r="H392" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12878,7 +12851,7 @@
         <v>401</v>
       </c>
       <c r="H393" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12904,7 +12877,7 @@
         <v>402</v>
       </c>
       <c r="H394" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12930,7 +12903,7 @@
         <v>403</v>
       </c>
       <c r="H395" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12956,7 +12929,7 @@
         <v>404</v>
       </c>
       <c r="H396" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12982,7 +12955,7 @@
         <v>405</v>
       </c>
       <c r="H397" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13008,7 +12981,7 @@
         <v>406</v>
       </c>
       <c r="H398" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13034,7 +13007,7 @@
         <v>407</v>
       </c>
       <c r="H399" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13060,7 +13033,7 @@
         <v>408</v>
       </c>
       <c r="H400" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13086,7 +13059,7 @@
         <v>409</v>
       </c>
       <c r="H401" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13112,7 +13085,7 @@
         <v>410</v>
       </c>
       <c r="H402" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13138,7 +13111,7 @@
         <v>411</v>
       </c>
       <c r="H403" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13164,7 +13137,7 @@
         <v>412</v>
       </c>
       <c r="H404" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13190,7 +13163,7 @@
         <v>413</v>
       </c>
       <c r="H405" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13216,7 +13189,7 @@
         <v>414</v>
       </c>
       <c r="H406" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13242,7 +13215,7 @@
         <v>415</v>
       </c>
       <c r="H407" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13268,7 +13241,7 @@
         <v>416</v>
       </c>
       <c r="H408" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13294,7 +13267,7 @@
         <v>417</v>
       </c>
       <c r="H409" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13320,7 +13293,7 @@
         <v>418</v>
       </c>
       <c r="H410" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13346,7 +13319,7 @@
         <v>419</v>
       </c>
       <c r="H411" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13372,7 +13345,7 @@
         <v>420</v>
       </c>
       <c r="H412" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13398,7 +13371,7 @@
         <v>421</v>
       </c>
       <c r="H413" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13424,7 +13397,7 @@
         <v>422</v>
       </c>
       <c r="H414" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13450,7 +13423,7 @@
         <v>423</v>
       </c>
       <c r="H415" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13476,7 +13449,7 @@
         <v>424</v>
       </c>
       <c r="H416" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13502,7 +13475,7 @@
         <v>425</v>
       </c>
       <c r="H417" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13528,7 +13501,7 @@
         <v>426</v>
       </c>
       <c r="H418" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13554,7 +13527,7 @@
         <v>427</v>
       </c>
       <c r="H419" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13580,7 +13553,7 @@
         <v>428</v>
       </c>
       <c r="H420" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13606,7 +13579,7 @@
         <v>429</v>
       </c>
       <c r="H421" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13632,7 +13605,7 @@
         <v>430</v>
       </c>
       <c r="H422" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13658,7 +13631,7 @@
         <v>431</v>
       </c>
       <c r="H423" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13684,7 +13657,7 @@
         <v>432</v>
       </c>
       <c r="H424" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13710,7 +13683,7 @@
         <v>433</v>
       </c>
       <c r="H425" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13736,7 +13709,7 @@
         <v>434</v>
       </c>
       <c r="H426" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13762,7 +13735,7 @@
         <v>435</v>
       </c>
       <c r="H427" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13788,7 +13761,7 @@
         <v>436</v>
       </c>
       <c r="H428" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13814,7 +13787,7 @@
         <v>437</v>
       </c>
       <c r="H429" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13840,7 +13813,7 @@
         <v>438</v>
       </c>
       <c r="H430" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13866,7 +13839,7 @@
         <v>439</v>
       </c>
       <c r="H431" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13892,7 +13865,7 @@
         <v>440</v>
       </c>
       <c r="H432" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13918,7 +13891,7 @@
         <v>441</v>
       </c>
       <c r="H433" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13944,7 +13917,7 @@
         <v>442</v>
       </c>
       <c r="H434" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13970,7 +13943,7 @@
         <v>443</v>
       </c>
       <c r="H435" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13996,7 +13969,7 @@
         <v>444</v>
       </c>
       <c r="H436" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14022,7 +13995,7 @@
         <v>445</v>
       </c>
       <c r="H437" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14048,7 +14021,7 @@
         <v>446</v>
       </c>
       <c r="H438" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14074,7 +14047,7 @@
         <v>447</v>
       </c>
       <c r="H439" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14100,7 +14073,7 @@
         <v>448</v>
       </c>
       <c r="H440" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14126,7 +14099,7 @@
         <v>449</v>
       </c>
       <c r="H441" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14152,7 +14125,7 @@
         <v>450</v>
       </c>
       <c r="H442" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14178,7 +14151,7 @@
         <v>451</v>
       </c>
       <c r="H443" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14204,7 +14177,7 @@
         <v>452</v>
       </c>
       <c r="H444" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14230,7 +14203,7 @@
         <v>453</v>
       </c>
       <c r="H445" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14256,7 +14229,7 @@
         <v>454</v>
       </c>
       <c r="H446" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14282,7 +14255,7 @@
         <v>455</v>
       </c>
       <c r="H447" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14308,7 +14281,7 @@
         <v>456</v>
       </c>
       <c r="H448" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14334,7 +14307,7 @@
         <v>457</v>
       </c>
       <c r="H449" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14360,7 +14333,7 @@
         <v>458</v>
       </c>
       <c r="H450" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14386,7 +14359,7 @@
         <v>459</v>
       </c>
       <c r="H451" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14412,7 +14385,7 @@
         <v>460</v>
       </c>
       <c r="H452" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14438,7 +14411,7 @@
         <v>461</v>
       </c>
       <c r="H453" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14464,7 +14437,7 @@
         <v>462</v>
       </c>
       <c r="H454" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14490,7 +14463,7 @@
         <v>463</v>
       </c>
       <c r="H455" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14516,7 +14489,7 @@
         <v>464</v>
       </c>
       <c r="H456" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14542,7 +14515,7 @@
         <v>465</v>
       </c>
       <c r="H457" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14568,7 +14541,7 @@
         <v>466</v>
       </c>
       <c r="H458" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14594,7 +14567,7 @@
         <v>467</v>
       </c>
       <c r="H459" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14620,7 +14593,7 @@
         <v>468</v>
       </c>
       <c r="H460" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14646,7 +14619,7 @@
         <v>469</v>
       </c>
       <c r="H461" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14672,7 +14645,7 @@
         <v>470</v>
       </c>
       <c r="H462" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14698,7 +14671,7 @@
         <v>471</v>
       </c>
       <c r="H463" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14724,7 +14697,7 @@
         <v>472</v>
       </c>
       <c r="H464" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14750,7 +14723,7 @@
         <v>473</v>
       </c>
       <c r="H465" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14776,7 +14749,7 @@
         <v>474</v>
       </c>
       <c r="H466" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14802,7 +14775,7 @@
         <v>475</v>
       </c>
       <c r="H467" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14828,7 +14801,7 @@
         <v>476</v>
       </c>
       <c r="H468" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14854,7 +14827,7 @@
         <v>477</v>
       </c>
       <c r="H469" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14880,7 +14853,7 @@
         <v>478</v>
       </c>
       <c r="H470" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14906,7 +14879,7 @@
         <v>479</v>
       </c>
       <c r="H471" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14932,7 +14905,7 @@
         <v>480</v>
       </c>
       <c r="H472" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14958,7 +14931,7 @@
         <v>481</v>
       </c>
       <c r="H473" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14984,7 +14957,7 @@
         <v>482</v>
       </c>
       <c r="H474" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15010,7 +14983,7 @@
         <v>483</v>
       </c>
       <c r="H475" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15036,7 +15009,7 @@
         <v>484</v>
       </c>
       <c r="H476" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15062,7 +15035,7 @@
         <v>485</v>
       </c>
       <c r="H477" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15088,7 +15061,7 @@
         <v>486</v>
       </c>
       <c r="H478" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15114,7 +15087,7 @@
         <v>487</v>
       </c>
       <c r="H479" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15140,7 +15113,7 @@
         <v>488</v>
       </c>
       <c r="H480" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15166,7 +15139,7 @@
         <v>489</v>
       </c>
       <c r="H481" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15192,7 +15165,7 @@
         <v>490</v>
       </c>
       <c r="H482" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15218,7 +15191,7 @@
         <v>491</v>
       </c>
       <c r="H483" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15244,7 +15217,7 @@
         <v>492</v>
       </c>
       <c r="H484" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15270,7 +15243,7 @@
         <v>493</v>
       </c>
       <c r="H485" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15296,7 +15269,7 @@
         <v>494</v>
       </c>
       <c r="H486" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15322,7 +15295,7 @@
         <v>495</v>
       </c>
       <c r="H487" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15348,7 +15321,7 @@
         <v>496</v>
       </c>
       <c r="H488" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15374,7 +15347,7 @@
         <v>497</v>
       </c>
       <c r="H489" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15400,7 +15373,7 @@
         <v>498</v>
       </c>
       <c r="H490" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15426,7 +15399,7 @@
         <v>499</v>
       </c>
       <c r="H491" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15452,7 +15425,7 @@
         <v>500</v>
       </c>
       <c r="H492" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15478,7 +15451,7 @@
         <v>501</v>
       </c>
       <c r="H493" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15504,7 +15477,7 @@
         <v>502</v>
       </c>
       <c r="H494" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15530,7 +15503,7 @@
         <v>503</v>
       </c>
       <c r="H495" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15556,7 +15529,7 @@
         <v>504</v>
       </c>
       <c r="H496" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15582,7 +15555,7 @@
         <v>505</v>
       </c>
       <c r="H497" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15608,7 +15581,7 @@
         <v>506</v>
       </c>
       <c r="H498" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15634,7 +15607,7 @@
         <v>507</v>
       </c>
       <c r="H499" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15660,7 +15633,7 @@
         <v>508</v>
       </c>
       <c r="H500" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15686,7 +15659,7 @@
         <v>509</v>
       </c>
       <c r="H501" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15712,7 +15685,7 @@
         <v>510</v>
       </c>
       <c r="H502" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15738,7 +15711,7 @@
         <v>511</v>
       </c>
       <c r="H503" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15764,7 +15737,7 @@
         <v>512</v>
       </c>
       <c r="H504" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15790,7 +15763,7 @@
         <v>513</v>
       </c>
       <c r="H505" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15816,7 +15789,7 @@
         <v>514</v>
       </c>
       <c r="H506" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15842,7 +15815,7 @@
         <v>515</v>
       </c>
       <c r="H507" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15868,7 +15841,7 @@
         <v>516</v>
       </c>
       <c r="H508" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15894,7 +15867,7 @@
         <v>517</v>
       </c>
       <c r="H509" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15920,7 +15893,7 @@
         <v>518</v>
       </c>
       <c r="H510" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15946,7 +15919,7 @@
         <v>519</v>
       </c>
       <c r="H511" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15972,7 +15945,7 @@
         <v>520</v>
       </c>
       <c r="H512" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15998,7 +15971,7 @@
         <v>521</v>
       </c>
       <c r="H513" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16024,7 +15997,7 @@
         <v>522</v>
       </c>
       <c r="H514" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16050,7 +16023,7 @@
         <v>523</v>
       </c>
       <c r="H515" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16076,7 +16049,7 @@
         <v>524</v>
       </c>
       <c r="H516" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16102,7 +16075,7 @@
         <v>525</v>
       </c>
       <c r="H517" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16128,7 +16101,7 @@
         <v>526</v>
       </c>
       <c r="H518" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16154,7 +16127,7 @@
         <v>527</v>
       </c>
       <c r="H519" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16180,7 +16153,7 @@
         <v>528</v>
       </c>
       <c r="H520" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16206,7 +16179,7 @@
         <v>529</v>
       </c>
       <c r="H521" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16232,7 +16205,7 @@
         <v>530</v>
       </c>
       <c r="H522" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16258,7 +16231,7 @@
         <v>531</v>
       </c>
       <c r="H523" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16284,7 +16257,7 @@
         <v>532</v>
       </c>
       <c r="H524" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16310,7 +16283,7 @@
         <v>533</v>
       </c>
       <c r="H525" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16336,7 +16309,7 @@
         <v>534</v>
       </c>
       <c r="H526" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16362,7 +16335,7 @@
         <v>535</v>
       </c>
       <c r="H527" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16388,7 +16361,7 @@
         <v>536</v>
       </c>
       <c r="H528" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16414,7 +16387,7 @@
         <v>537</v>
       </c>
       <c r="H529" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16440,7 +16413,7 @@
         <v>538</v>
       </c>
       <c r="H530" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16466,7 +16439,7 @@
         <v>539</v>
       </c>
       <c r="H531" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16492,7 +16465,7 @@
         <v>540</v>
       </c>
       <c r="H532" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16518,7 +16491,7 @@
         <v>541</v>
       </c>
       <c r="H533" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16544,7 +16517,7 @@
         <v>542</v>
       </c>
       <c r="H534" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16570,7 +16543,7 @@
         <v>543</v>
       </c>
       <c r="H535" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16596,7 +16569,7 @@
         <v>544</v>
       </c>
       <c r="H536" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16622,7 +16595,7 @@
         <v>545</v>
       </c>
       <c r="H537" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16648,7 +16621,7 @@
         <v>546</v>
       </c>
       <c r="H538" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16674,7 +16647,7 @@
         <v>547</v>
       </c>
       <c r="H539" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16700,7 +16673,7 @@
         <v>548</v>
       </c>
       <c r="H540" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16726,7 +16699,7 @@
         <v>549</v>
       </c>
       <c r="H541" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16752,7 +16725,7 @@
         <v>550</v>
       </c>
       <c r="H542" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16778,7 +16751,7 @@
         <v>551</v>
       </c>
       <c r="H543" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16804,7 +16777,7 @@
         <v>552</v>
       </c>
       <c r="H544" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16830,7 +16803,7 @@
         <v>553</v>
       </c>
       <c r="H545" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16856,7 +16829,7 @@
         <v>554</v>
       </c>
       <c r="H546" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16882,7 +16855,7 @@
         <v>555</v>
       </c>
       <c r="H547" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16908,7 +16881,7 @@
         <v>556</v>
       </c>
       <c r="H548" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16934,7 +16907,7 @@
         <v>557</v>
       </c>
       <c r="H549" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16960,7 +16933,7 @@
         <v>558</v>
       </c>
       <c r="H550" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16986,7 +16959,7 @@
         <v>559</v>
       </c>
       <c r="H551" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -17012,7 +16985,7 @@
         <v>560</v>
       </c>
       <c r="H552" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17038,7 +17011,7 @@
         <v>561</v>
       </c>
       <c r="H553" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17064,7 +17037,7 @@
         <v>562</v>
       </c>
       <c r="H554" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17090,7 +17063,7 @@
         <v>563</v>
       </c>
       <c r="H555" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17116,7 +17089,7 @@
         <v>564</v>
       </c>
       <c r="H556" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17142,7 +17115,7 @@
         <v>565</v>
       </c>
       <c r="H557" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17168,7 +17141,7 @@
         <v>566</v>
       </c>
       <c r="H558" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17194,7 +17167,7 @@
         <v>567</v>
       </c>
       <c r="H559" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17220,7 +17193,7 @@
         <v>568</v>
       </c>
       <c r="H560" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17246,7 +17219,7 @@
         <v>569</v>
       </c>
       <c r="H561" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17272,7 +17245,7 @@
         <v>570</v>
       </c>
       <c r="H562" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17298,7 +17271,7 @@
         <v>571</v>
       </c>
       <c r="H563" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17324,7 +17297,7 @@
         <v>572</v>
       </c>
       <c r="H564" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17350,7 +17323,7 @@
         <v>573</v>
       </c>
       <c r="H565" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17376,7 +17349,7 @@
         <v>574</v>
       </c>
       <c r="H566" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17402,7 +17375,7 @@
         <v>575</v>
       </c>
       <c r="H567" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17428,7 +17401,7 @@
         <v>576</v>
       </c>
       <c r="H568" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17454,7 +17427,7 @@
         <v>577</v>
       </c>
       <c r="H569" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17480,7 +17453,7 @@
         <v>578</v>
       </c>
       <c r="H570" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17506,7 +17479,7 @@
         <v>579</v>
       </c>
       <c r="H571" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17532,7 +17505,7 @@
         <v>580</v>
       </c>
       <c r="H572" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17558,7 +17531,7 @@
         <v>581</v>
       </c>
       <c r="H573" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17584,7 +17557,7 @@
         <v>582</v>
       </c>
       <c r="H574" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17610,7 +17583,7 @@
         <v>583</v>
       </c>
       <c r="H575" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17636,7 +17609,7 @@
         <v>584</v>
       </c>
       <c r="H576" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17662,7 +17635,7 @@
         <v>585</v>
       </c>
       <c r="H577" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17688,7 +17661,7 @@
         <v>586</v>
       </c>
       <c r="H578" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17714,7 +17687,7 @@
         <v>587</v>
       </c>
       <c r="H579" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17740,7 +17713,7 @@
         <v>588</v>
       </c>
       <c r="H580" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17766,7 +17739,7 @@
         <v>589</v>
       </c>
       <c r="H581" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17792,7 +17765,7 @@
         <v>590</v>
       </c>
       <c r="H582" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17818,7 +17791,7 @@
         <v>591</v>
       </c>
       <c r="H583" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17844,7 +17817,7 @@
         <v>592</v>
       </c>
       <c r="H584" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17870,7 +17843,7 @@
         <v>593</v>
       </c>
       <c r="H585" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17896,7 +17869,7 @@
         <v>594</v>
       </c>
       <c r="H586" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17922,7 +17895,7 @@
         <v>595</v>
       </c>
       <c r="H587" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17948,7 +17921,7 @@
         <v>596</v>
       </c>
       <c r="H588" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17974,7 +17947,7 @@
         <v>597</v>
       </c>
       <c r="H589" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -18000,7 +17973,7 @@
         <v>598</v>
       </c>
       <c r="H590" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -18026,7 +17999,7 @@
         <v>599</v>
       </c>
       <c r="H591" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -18052,7 +18025,7 @@
         <v>600</v>
       </c>
       <c r="H592" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -18078,7 +18051,7 @@
         <v>601</v>
       </c>
       <c r="H593" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -18104,7 +18077,7 @@
         <v>602</v>
       </c>
       <c r="H594" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -18130,7 +18103,7 @@
         <v>603</v>
       </c>
       <c r="H595" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -18156,7 +18129,7 @@
         <v>604</v>
       </c>
       <c r="H596" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -18182,7 +18155,7 @@
         <v>605</v>
       </c>
       <c r="H597" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -18208,7 +18181,7 @@
         <v>606</v>
       </c>
       <c r="H598" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -18234,7 +18207,7 @@
         <v>607</v>
       </c>
       <c r="H599" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -18260,7 +18233,7 @@
         <v>608</v>
       </c>
       <c r="H600" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -18286,7 +18259,7 @@
         <v>609</v>
       </c>
       <c r="H601" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -18312,7 +18285,7 @@
         <v>610</v>
       </c>
       <c r="H602" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -18338,7 +18311,7 @@
         <v>611</v>
       </c>
       <c r="H603" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -18364,7 +18337,7 @@
         <v>612</v>
       </c>
       <c r="H604" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -18390,7 +18363,7 @@
         <v>613</v>
       </c>
       <c r="H605" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -18416,7 +18389,7 @@
         <v>614</v>
       </c>
       <c r="H606" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -18442,7 +18415,7 @@
         <v>615</v>
       </c>
       <c r="H607" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -18468,7 +18441,7 @@
         <v>616</v>
       </c>
       <c r="H608" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -18494,7 +18467,7 @@
         <v>617</v>
       </c>
       <c r="H609" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -18520,7 +18493,7 @@
         <v>618</v>
       </c>
       <c r="H610" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -18546,7 +18519,7 @@
         <v>619</v>
       </c>
       <c r="H611" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -18572,7 +18545,7 @@
         <v>620</v>
       </c>
       <c r="H612" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -18598,7 +18571,7 @@
         <v>621</v>
       </c>
       <c r="H613" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -18624,7 +18597,7 @@
         <v>622</v>
       </c>
       <c r="H614" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -18650,7 +18623,7 @@
         <v>623</v>
       </c>
       <c r="H615" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -18676,7 +18649,7 @@
         <v>624</v>
       </c>
       <c r="H616" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -18702,7 +18675,7 @@
         <v>625</v>
       </c>
       <c r="H617" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -18728,7 +18701,7 @@
         <v>626</v>
       </c>
       <c r="H618" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -18754,7 +18727,7 @@
         <v>627</v>
       </c>
       <c r="H619" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -18780,7 +18753,7 @@
         <v>628</v>
       </c>
       <c r="H620" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -18806,7 +18779,7 @@
         <v>629</v>
       </c>
       <c r="H621" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -18832,7 +18805,7 @@
         <v>630</v>
       </c>
       <c r="H622" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -18858,7 +18831,7 @@
         <v>631</v>
       </c>
       <c r="H623" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -18884,7 +18857,7 @@
         <v>632</v>
       </c>
       <c r="H624" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -18910,7 +18883,7 @@
         <v>633</v>
       </c>
       <c r="H625" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -18936,7 +18909,7 @@
         <v>634</v>
       </c>
       <c r="H626" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -18962,7 +18935,7 @@
         <v>635</v>
       </c>
       <c r="H627" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -18988,7 +18961,7 @@
         <v>636</v>
       </c>
       <c r="H628" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -19014,7 +18987,7 @@
         <v>637</v>
       </c>
       <c r="H629" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -19040,7 +19013,7 @@
         <v>638</v>
       </c>
       <c r="H630" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -19066,7 +19039,7 @@
         <v>639</v>
       </c>
       <c r="H631" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -19092,7 +19065,7 @@
         <v>640</v>
       </c>
       <c r="H632" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -19118,7 +19091,7 @@
         <v>641</v>
       </c>
       <c r="H633" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -19144,7 +19117,7 @@
         <v>642</v>
       </c>
       <c r="H634" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -19170,7 +19143,7 @@
         <v>643</v>
       </c>
       <c r="H635" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -19196,7 +19169,7 @@
         <v>644</v>
       </c>
       <c r="H636" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -19222,7 +19195,7 @@
         <v>645</v>
       </c>
       <c r="H637" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -19248,7 +19221,7 @@
         <v>646</v>
       </c>
       <c r="H638" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -19274,7 +19247,7 @@
         <v>647</v>
       </c>
       <c r="H639" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -19300,7 +19273,7 @@
         <v>648</v>
       </c>
       <c r="H640" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -19326,7 +19299,7 @@
         <v>649</v>
       </c>
       <c r="H641" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -19352,7 +19325,7 @@
         <v>650</v>
       </c>
       <c r="H642" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -19378,7 +19351,7 @@
         <v>651</v>
       </c>
       <c r="H643" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -19404,7 +19377,7 @@
         <v>652</v>
       </c>
       <c r="H644" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -19430,7 +19403,7 @@
         <v>653</v>
       </c>
       <c r="H645" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -19456,7 +19429,7 @@
         <v>654</v>
       </c>
       <c r="H646" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -19482,7 +19455,7 @@
         <v>655</v>
       </c>
       <c r="H647" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -19508,7 +19481,7 @@
         <v>656</v>
       </c>
       <c r="H648" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -19534,7 +19507,7 @@
         <v>657</v>
       </c>
       <c r="H649" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -19560,7 +19533,7 @@
         <v>658</v>
       </c>
       <c r="H650" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -19586,7 +19559,7 @@
         <v>659</v>
       </c>
       <c r="H651" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -19612,7 +19585,7 @@
         <v>660</v>
       </c>
       <c r="H652" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -19638,7 +19611,7 @@
         <v>661</v>
       </c>
       <c r="H653" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -19664,7 +19637,7 @@
         <v>662</v>
       </c>
       <c r="H654" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -19690,7 +19663,7 @@
         <v>663</v>
       </c>
       <c r="H655" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -19716,7 +19689,7 @@
         <v>664</v>
       </c>
       <c r="H656" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -19742,7 +19715,7 @@
         <v>665</v>
       </c>
       <c r="H657" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -19768,7 +19741,7 @@
         <v>666</v>
       </c>
       <c r="H658" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -19794,7 +19767,7 @@
         <v>667</v>
       </c>
       <c r="H659" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -19820,7 +19793,7 @@
         <v>668</v>
       </c>
       <c r="H660" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -19846,7 +19819,7 @@
         <v>669</v>
       </c>
       <c r="H661" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -19872,7 +19845,7 @@
         <v>670</v>
       </c>
       <c r="H662" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -19898,7 +19871,7 @@
         <v>671</v>
       </c>
       <c r="H663" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -19924,7 +19897,7 @@
         <v>672</v>
       </c>
       <c r="H664" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -19950,7 +19923,7 @@
         <v>673</v>
       </c>
       <c r="H665" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -19976,7 +19949,7 @@
         <v>674</v>
       </c>
       <c r="H666" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -20002,7 +19975,7 @@
         <v>675</v>
       </c>
       <c r="H667" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -20028,7 +20001,7 @@
         <v>676</v>
       </c>
       <c r="H668" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -20054,7 +20027,7 @@
         <v>677</v>
       </c>
       <c r="H669" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -20080,7 +20053,7 @@
         <v>678</v>
       </c>
       <c r="H670" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -20106,7 +20079,7 @@
         <v>679</v>
       </c>
       <c r="H671" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -20132,7 +20105,7 @@
         <v>680</v>
       </c>
       <c r="H672" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -20158,7 +20131,7 @@
         <v>681</v>
       </c>
       <c r="H673" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -20184,7 +20157,7 @@
         <v>682</v>
       </c>
       <c r="H674" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -20210,7 +20183,7 @@
         <v>683</v>
       </c>
       <c r="H675" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -20236,7 +20209,7 @@
         <v>684</v>
       </c>
       <c r="H676" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -20262,7 +20235,7 @@
         <v>685</v>
       </c>
       <c r="H677" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -20288,7 +20261,7 @@
         <v>686</v>
       </c>
       <c r="H678" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -20314,7 +20287,7 @@
         <v>687</v>
       </c>
       <c r="H679" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -20340,7 +20313,7 @@
         <v>688</v>
       </c>
       <c r="H680" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -20366,7 +20339,7 @@
         <v>689</v>
       </c>
       <c r="H681" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -20392,7 +20365,7 @@
         <v>690</v>
       </c>
       <c r="H682" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -20418,7 +20391,7 @@
         <v>691</v>
       </c>
       <c r="H683" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -20444,7 +20417,7 @@
         <v>692</v>
       </c>
       <c r="H684" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -20470,7 +20443,7 @@
         <v>693</v>
       </c>
       <c r="H685" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -20496,7 +20469,7 @@
         <v>694</v>
       </c>
       <c r="H686" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -20522,7 +20495,7 @@
         <v>695</v>
       </c>
       <c r="H687" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -20548,7 +20521,7 @@
         <v>696</v>
       </c>
       <c r="H688" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -20574,7 +20547,7 @@
         <v>697</v>
       </c>
       <c r="H689" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -20600,7 +20573,7 @@
         <v>698</v>
       </c>
       <c r="H690" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -20626,7 +20599,7 @@
         <v>699</v>
       </c>
       <c r="H691" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -20652,7 +20625,7 @@
         <v>700</v>
       </c>
       <c r="H692" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -20678,7 +20651,7 @@
         <v>701</v>
       </c>
       <c r="H693" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -20704,7 +20677,7 @@
         <v>702</v>
       </c>
       <c r="H694" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -20730,7 +20703,7 @@
         <v>703</v>
       </c>
       <c r="H695" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -20756,7 +20729,7 @@
         <v>704</v>
       </c>
       <c r="H696" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -20782,7 +20755,7 @@
         <v>705</v>
       </c>
       <c r="H697" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -20808,7 +20781,7 @@
         <v>706</v>
       </c>
       <c r="H698" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -20834,7 +20807,7 @@
         <v>707</v>
       </c>
       <c r="H699" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -20860,7 +20833,7 @@
         <v>708</v>
       </c>
       <c r="H700" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -20886,7 +20859,7 @@
         <v>709</v>
       </c>
       <c r="H701" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -20912,7 +20885,7 @@
         <v>710</v>
       </c>
       <c r="H702" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -20938,7 +20911,7 @@
         <v>711</v>
       </c>
       <c r="H703" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -20964,7 +20937,7 @@
         <v>712</v>
       </c>
       <c r="H704" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -20990,7 +20963,7 @@
         <v>713</v>
       </c>
       <c r="H705" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -21016,7 +20989,7 @@
         <v>714</v>
       </c>
       <c r="H706" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -21042,7 +21015,7 @@
         <v>715</v>
       </c>
       <c r="H707" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -21068,7 +21041,7 @@
         <v>716</v>
       </c>
       <c r="H708" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -21094,7 +21067,7 @@
         <v>717</v>
       </c>
       <c r="H709" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -21120,7 +21093,7 @@
         <v>718</v>
       </c>
       <c r="H710" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -21146,7 +21119,7 @@
         <v>719</v>
       </c>
       <c r="H711" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -21172,7 +21145,7 @@
         <v>720</v>
       </c>
       <c r="H712" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -21198,7 +21171,7 @@
         <v>721</v>
       </c>
       <c r="H713" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -21224,7 +21197,7 @@
         <v>722</v>
       </c>
       <c r="H714" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -21250,7 +21223,7 @@
         <v>723</v>
       </c>
       <c r="H715" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -21276,7 +21249,7 @@
         <v>724</v>
       </c>
       <c r="H716" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -21302,7 +21275,7 @@
         <v>725</v>
       </c>
       <c r="H717" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -21328,7 +21301,7 @@
         <v>726</v>
       </c>
       <c r="H718" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -21354,7 +21327,7 @@
         <v>727</v>
       </c>
       <c r="H719" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -21380,7 +21353,7 @@
         <v>728</v>
       </c>
       <c r="H720" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -21406,7 +21379,7 @@
         <v>729</v>
       </c>
       <c r="H721" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -21432,7 +21405,7 @@
         <v>730</v>
       </c>
       <c r="H722" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -21458,7 +21431,7 @@
         <v>731</v>
       </c>
       <c r="H723" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -21484,7 +21457,7 @@
         <v>732</v>
       </c>
       <c r="H724" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -21510,7 +21483,7 @@
         <v>733</v>
       </c>
       <c r="H725" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -21536,7 +21509,7 @@
         <v>734</v>
       </c>
       <c r="H726" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -21562,7 +21535,7 @@
         <v>735</v>
       </c>
       <c r="H727" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -21588,7 +21561,7 @@
         <v>736</v>
       </c>
       <c r="H728" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -21614,7 +21587,7 @@
         <v>737</v>
       </c>
       <c r="H729" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -21640,7 +21613,7 @@
         <v>738</v>
       </c>
       <c r="H730" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -21666,7 +21639,7 @@
         <v>739</v>
       </c>
       <c r="H731" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -21692,7 +21665,7 @@
         <v>740</v>
       </c>
       <c r="H732" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -21718,7 +21691,7 @@
         <v>741</v>
       </c>
       <c r="H733" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -21744,7 +21717,7 @@
         <v>742</v>
       </c>
       <c r="H734" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -21770,7 +21743,7 @@
         <v>743</v>
       </c>
       <c r="H735" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -21796,7 +21769,7 @@
         <v>744</v>
       </c>
       <c r="H736" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -21822,7 +21795,7 @@
         <v>745</v>
       </c>
       <c r="H737" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -21848,7 +21821,7 @@
         <v>746</v>
       </c>
       <c r="H738" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -21874,7 +21847,7 @@
         <v>747</v>
       </c>
       <c r="H739" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -21900,7 +21873,7 @@
         <v>748</v>
       </c>
       <c r="H740" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -21926,7 +21899,7 @@
         <v>749</v>
       </c>
       <c r="H741" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -21952,7 +21925,7 @@
         <v>750</v>
       </c>
       <c r="H742" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -21978,7 +21951,7 @@
         <v>751</v>
       </c>
       <c r="H743" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -22004,241 +21977,7 @@
         <v>752</v>
       </c>
       <c r="H744" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="745" spans="1:8">
-      <c r="A745" s="1">
-        <v>743</v>
-      </c>
-      <c r="B745" t="s">
-        <v>7</v>
-      </c>
-      <c r="C745" t="s">
-        <v>8</v>
-      </c>
-      <c r="D745">
-        <v>946.2</v>
-      </c>
-      <c r="E745">
-        <v>46491</v>
-      </c>
-      <c r="F745" t="s">
-        <v>9</v>
-      </c>
-      <c r="G745" t="s">
-        <v>753</v>
-      </c>
-      <c r="H745" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="746" spans="1:8">
-      <c r="A746" s="1">
-        <v>744</v>
-      </c>
-      <c r="B746" t="s">
-        <v>7</v>
-      </c>
-      <c r="C746" t="s">
-        <v>8</v>
-      </c>
-      <c r="D746">
-        <v>946.2</v>
-      </c>
-      <c r="E746">
-        <v>46491</v>
-      </c>
-      <c r="F746" t="s">
-        <v>9</v>
-      </c>
-      <c r="G746" t="s">
-        <v>754</v>
-      </c>
-      <c r="H746" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="747" spans="1:8">
-      <c r="A747" s="1">
-        <v>745</v>
-      </c>
-      <c r="B747" t="s">
-        <v>7</v>
-      </c>
-      <c r="C747" t="s">
-        <v>8</v>
-      </c>
-      <c r="D747">
-        <v>946.2</v>
-      </c>
-      <c r="E747">
-        <v>46491</v>
-      </c>
-      <c r="F747" t="s">
-        <v>9</v>
-      </c>
-      <c r="G747" t="s">
-        <v>755</v>
-      </c>
-      <c r="H747" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="748" spans="1:8">
-      <c r="A748" s="1">
-        <v>746</v>
-      </c>
-      <c r="B748" t="s">
-        <v>7</v>
-      </c>
-      <c r="C748" t="s">
-        <v>8</v>
-      </c>
-      <c r="D748">
-        <v>946.2</v>
-      </c>
-      <c r="E748">
-        <v>46491</v>
-      </c>
-      <c r="F748" t="s">
-        <v>9</v>
-      </c>
-      <c r="G748" t="s">
-        <v>756</v>
-      </c>
-      <c r="H748" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="749" spans="1:8">
-      <c r="A749" s="1">
-        <v>747</v>
-      </c>
-      <c r="B749" t="s">
-        <v>7</v>
-      </c>
-      <c r="C749" t="s">
-        <v>8</v>
-      </c>
-      <c r="D749">
-        <v>946.2</v>
-      </c>
-      <c r="E749">
-        <v>46491</v>
-      </c>
-      <c r="F749" t="s">
-        <v>9</v>
-      </c>
-      <c r="G749" t="s">
-        <v>757</v>
-      </c>
-      <c r="H749" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="750" spans="1:8">
-      <c r="A750" s="1">
-        <v>748</v>
-      </c>
-      <c r="B750" t="s">
-        <v>7</v>
-      </c>
-      <c r="C750" t="s">
-        <v>8</v>
-      </c>
-      <c r="D750">
-        <v>946.2</v>
-      </c>
-      <c r="E750">
-        <v>46491</v>
-      </c>
-      <c r="F750" t="s">
-        <v>9</v>
-      </c>
-      <c r="G750" t="s">
-        <v>758</v>
-      </c>
-      <c r="H750" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="751" spans="1:8">
-      <c r="A751" s="1">
-        <v>749</v>
-      </c>
-      <c r="B751" t="s">
-        <v>7</v>
-      </c>
-      <c r="C751" t="s">
-        <v>8</v>
-      </c>
-      <c r="D751">
-        <v>946.2</v>
-      </c>
-      <c r="E751">
-        <v>46491</v>
-      </c>
-      <c r="F751" t="s">
-        <v>9</v>
-      </c>
-      <c r="G751" t="s">
-        <v>759</v>
-      </c>
-      <c r="H751" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="752" spans="1:8">
-      <c r="A752" s="1">
-        <v>750</v>
-      </c>
-      <c r="B752" t="s">
-        <v>7</v>
-      </c>
-      <c r="C752" t="s">
-        <v>8</v>
-      </c>
-      <c r="D752">
-        <v>946.2</v>
-      </c>
-      <c r="E752">
-        <v>46491</v>
-      </c>
-      <c r="F752" t="s">
-        <v>9</v>
-      </c>
-      <c r="G752" t="s">
-        <v>760</v>
-      </c>
-      <c r="H752" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="753" spans="1:8">
-      <c r="A753" s="1">
-        <v>751</v>
-      </c>
-      <c r="B753" t="s">
-        <v>7</v>
-      </c>
-      <c r="C753" t="s">
-        <v>8</v>
-      </c>
-      <c r="D753">
-        <v>946.2</v>
-      </c>
-      <c r="E753">
-        <v>46491</v>
-      </c>
-      <c r="F753" t="s">
-        <v>9</v>
-      </c>
-      <c r="G753" t="s">
-        <v>761</v>
-      </c>
-      <c r="H753" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
